--- a/тест кейс.xlsx
+++ b/тест кейс.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
   <si>
     <t> Входные данные</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>программа записывает пробел вместо имени и фамилии</t>
+  </si>
+  <si>
+    <t>имя и фамилия с маленькой буквы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">программа приводит начальную букву имени и фамилии к верхнему регистру </t>
+  </si>
+  <si>
+    <t>имя и фамилия с маленькой буквы и с заглавными буквами в тексте</t>
   </si>
 </sst>
 </file>
@@ -428,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18"/>
@@ -609,6 +618,34 @@
       </c>
       <c r="D12" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="144" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="132.75" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/тест кейс.xlsx
+++ b/тест кейс.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t> Входные данные</t>
   </si>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18"/>
@@ -466,18 +466,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="36">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>-8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
+      <c r="B2" s="2">
+        <v>18</v>
       </c>
       <c r="C2" s="2">
-        <v>-8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
